--- a/xlsx/摩洛哥_intext.xlsx
+++ b/xlsx/摩洛哥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="888">
   <si>
     <t>摩洛哥</t>
   </si>
@@ -29,7 +29,7 @@
     <t>摩纳哥</t>
   </si>
   <si>
-    <t>政策_政策_美國_摩洛哥</t>
+    <t>政策_政策_美国_摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>摩洛哥國旗</t>
+    <t>摩洛哥国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E5%9B%BD%E5%BE%BD</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>柏柏爾語</t>
+    <t>柏柏尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E8%AE%AE%E4%BC%9A</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E5%9B%BD%E7%8E%8B</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E9%A6%96%E7%9B%B8</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.ma</t>
@@ -305,33 +305,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際冠碼</t>
+    <t>国际冠码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>国际电话区号列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
@@ -413,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%81%94</t>
   </si>
   <si>
-    <t>休達</t>
+    <t>休达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>梅利利亞</t>
+    <t>梅利利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -437,13 +428,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E6%B1%9D%E9%81%A9</t>
   </si>
   <si>
-    <t>趙汝適</t>
+    <t>赵汝适</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E8%95%83%E5%BF%97</t>
   </si>
   <si>
-    <t>諸蕃志</t>
+    <t>诸蕃志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%9C%BA</t>
@@ -461,19 +452,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B6%AD%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>阿拉維王朝</t>
+    <t>阿拉维王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -485,9 +473,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E5%88%B6</t>
   </si>
   <si>
@@ -539,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>司法獨立</t>
+    <t>司法独立</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Royal_Moroccan_Armed_Forces</t>
@@ -575,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E9%AB%98%E5%A3%93%E5%B8%B6</t>
   </si>
   <si>
-    <t>副熱帶高壓帶</t>
+    <t>副热带高压带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E5%AF%92%E6%B5%81</t>
@@ -605,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E8%B5%AB%E6%8B%89-%E9%BB%83%E9%87%91%E8%B0%B7%E5%9C%B0%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>達赫拉-黃金谷地大區</t>
+    <t>达赫拉-黄金谷地大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%9D%A3%E5%AF%9F%E5%8D%80</t>
   </si>
   <si>
-    <t>行政督察區</t>
+    <t>行政督察区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%90%89%E5%B0%94-%E5%BE%97%E5%9C%9F%E5%AE%89-%E8%83%A1%E5%A1%9E%E9%A9%AC%E5%A4%A7%E5%8C%BA</t>
@@ -659,13 +644,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%B0%BC%E9%82%81%E6%8B%89%E5%8B%92</t>
   </si>
   <si>
-    <t>貝尼邁拉勒</t>
+    <t>贝尼迈拉勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E8%B2%9D%E9%81%94</t>
   </si>
   <si>
-    <t>達爾貝達</t>
+    <t>达尔贝达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E5%96%80%E4%BB%80-%E8%90%A8%E8%8F%B2%E5%A4%A7%E5%8C%BA</t>
@@ -695,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8B%92%E6%95%8F</t>
   </si>
   <si>
-    <t>蓋勒敏</t>
+    <t>盖勒敏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%A4%E6%81%A9</t>
@@ -707,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E8%B5%AB%E6%8B%89</t>
   </si>
   <si>
-    <t>達赫拉</t>
+    <t>达赫拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
@@ -755,9 +740,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
   </si>
   <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
   </si>
   <si>
@@ -767,9 +749,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8A%A0%E8%BF%AA%E7%88%BE</t>
   </si>
   <si>
-    <t>阿加迪爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E8%BF%AA%E8%80%B6</t>
   </si>
   <si>
@@ -833,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>柏柏語</t>
+    <t>柏柏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -893,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>後備部隊</t>
+    <t>后备部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%E4%BA%94%E4%B8%96_(%E6%91%A9%E6%B4%9B%E5%93%A5)</t>
@@ -953,15 +932,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%BE%BE</t>
   </si>
   <si>
-    <t>休达</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
@@ -1049,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
@@ -1163,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
@@ -1181,19 +1154,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -1247,9 +1220,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>直布羅陀海峽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1265,19 +1235,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
@@ -1313,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1349,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1373,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1415,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1583,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1613,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1625,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1685,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1751,13 +1721,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1769,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -1787,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
@@ -1805,9 +1775,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9B%BD</t>
   </si>
   <si>
-    <t>巴勒斯坦国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%BD%97%E6%B2%B3</t>
   </si>
   <si>
@@ -1829,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1865,15 +1832,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
   </si>
   <si>
@@ -1883,31 +1847,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -2015,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2063,13 +2018,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2105,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2117,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -2135,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -2153,15 +2108,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
   </si>
   <si>
@@ -2171,19 +2123,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2201,25 +2153,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -2231,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -2243,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
@@ -2273,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -2291,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -2441,13 +2393,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2495,7 +2444,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -2513,7 +2462,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -2573,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -2585,9 +2534,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -2603,7 +2549,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -2627,7 +2573,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -2657,9 +2603,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
   </si>
   <si>
@@ -2669,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2687,19 +2630,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2729,13 +2672,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4643,7 +4586,7 @@
         <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4669,10 +4612,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="G55" t="n">
         <v>8</v>
@@ -4698,10 +4641,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -4756,10 +4699,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G58" t="n">
         <v>13</v>
@@ -4785,10 +4728,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4814,10 +4757,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
         <v>23</v>
@@ -4843,10 +4786,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
@@ -4872,10 +4815,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G62" t="n">
         <v>14</v>
@@ -4901,10 +4844,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G63" t="n">
         <v>10</v>
@@ -4930,10 +4873,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -4959,10 +4902,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -4988,10 +4931,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>14</v>
@@ -5017,10 +4960,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -5046,10 +4989,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>11</v>
@@ -5075,10 +5018,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -5104,10 +5047,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>8</v>
@@ -5133,10 +5076,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -5162,10 +5105,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5191,10 +5134,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5220,10 +5163,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5249,10 +5192,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5278,10 +5221,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5307,10 +5250,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5336,10 +5279,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5365,10 +5308,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -5394,10 +5337,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5423,10 +5366,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5452,10 +5395,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5481,10 +5424,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5510,10 +5453,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5539,10 +5482,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5597,10 +5540,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5626,10 +5569,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -5655,10 +5598,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5684,10 +5627,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5713,10 +5656,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5742,10 +5685,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5771,10 +5714,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5829,10 +5772,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5858,10 +5801,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5887,10 +5830,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5916,10 +5859,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5945,10 +5888,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5974,10 +5917,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6003,10 +5946,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6032,10 +5975,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6061,10 +6004,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6119,10 +6062,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6148,10 +6091,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6177,10 +6120,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6206,10 +6149,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6235,10 +6178,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G109" t="n">
         <v>6</v>
@@ -6264,10 +6207,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6293,10 +6236,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6322,10 +6265,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6351,10 +6294,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -6380,10 +6323,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6409,10 +6352,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6438,10 +6381,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6467,10 +6410,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6496,10 +6439,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -6525,10 +6468,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6554,10 +6497,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6583,10 +6526,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6612,10 +6555,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6641,10 +6584,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6670,10 +6613,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6699,10 +6642,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6728,10 +6671,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6757,10 +6700,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6786,10 +6729,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6815,10 +6758,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6844,10 +6787,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6873,10 +6816,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6902,10 +6845,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6931,10 +6874,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6960,10 +6903,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6989,10 +6932,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7018,10 +6961,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7047,10 +6990,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7076,10 +7019,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -7105,10 +7048,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -7134,10 +7077,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7163,10 +7106,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7192,10 +7135,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7221,10 +7164,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7250,10 +7193,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7279,10 +7222,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7308,10 +7251,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7337,10 +7280,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7366,10 +7309,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>9</v>
@@ -7395,10 +7338,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7424,10 +7367,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7453,10 +7396,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7482,10 +7425,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7511,10 +7454,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7540,10 +7483,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7569,10 +7512,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7598,10 +7541,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7627,10 +7570,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7656,10 +7599,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7685,10 +7628,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7714,10 +7657,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7743,10 +7686,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7772,10 +7715,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7801,10 +7744,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7830,10 +7773,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7859,10 +7802,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7888,10 +7831,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7917,10 +7860,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7946,10 +7889,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7975,10 +7918,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8004,10 +7947,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8033,10 +7976,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8062,10 +8005,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8091,10 +8034,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8120,10 +8063,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8149,10 +8092,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>10</v>
@@ -8178,10 +8121,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F176" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8207,10 +8150,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8236,10 +8179,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8265,10 +8208,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8323,10 +8266,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8352,10 +8295,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8381,10 +8324,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8410,13 +8353,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8439,10 +8382,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8468,10 +8411,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8497,13 +8440,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8526,10 +8469,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8555,10 +8498,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8584,10 +8527,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8613,10 +8556,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8642,10 +8585,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8671,10 +8614,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8700,10 +8643,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F194" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8729,13 +8672,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8758,10 +8701,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8787,10 +8730,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8816,10 +8759,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8845,10 +8788,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8874,10 +8817,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8903,10 +8846,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8932,13 +8875,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8961,10 +8904,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8990,10 +8933,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -9019,10 +8962,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -9048,10 +8991,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9077,10 +9020,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9106,10 +9049,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9135,10 +9078,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -9164,10 +9107,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9193,10 +9136,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9222,10 +9165,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9251,10 +9194,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9280,10 +9223,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9309,10 +9252,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9338,10 +9281,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9367,10 +9310,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9396,10 +9339,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9425,10 +9368,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9454,10 +9397,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9483,10 +9426,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F221" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9512,10 +9455,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F222" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9541,10 +9484,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9570,10 +9513,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F224" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9599,10 +9542,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F225" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9628,10 +9571,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9657,10 +9600,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F227" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9686,10 +9629,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F228" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9715,10 +9658,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F229" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9744,10 +9687,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F230" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9773,10 +9716,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F231" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9802,10 +9745,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F232" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9831,10 +9774,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F233" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9889,10 +9832,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F235" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9918,10 +9861,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F236" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9947,10 +9890,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F237" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9976,10 +9919,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F238" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10005,10 +9948,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F239" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10034,10 +9977,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F240" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10063,10 +10006,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F241" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G241" t="n">
         <v>6</v>
@@ -10092,10 +10035,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F242" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -10121,10 +10064,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F243" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10150,10 +10093,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F244" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G244" t="n">
         <v>4</v>
@@ -10179,10 +10122,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F245" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -10208,10 +10151,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F246" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -10237,10 +10180,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F247" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -10266,10 +10209,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F248" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -10295,10 +10238,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F249" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -10324,10 +10267,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F250" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10353,10 +10296,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F251" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10382,10 +10325,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F252" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10411,10 +10354,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F253" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -10440,10 +10383,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F254" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G254" t="n">
         <v>4</v>
@@ -10469,10 +10412,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F255" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10498,10 +10441,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F256" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G256" t="n">
         <v>4</v>
@@ -10527,10 +10470,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F257" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -10556,10 +10499,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F258" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10585,10 +10528,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F259" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10614,10 +10557,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F260" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10643,10 +10586,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F261" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G261" t="n">
         <v>4</v>
@@ -10672,10 +10615,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F262" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G262" t="n">
         <v>4</v>
@@ -10701,10 +10644,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F263" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10730,10 +10673,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F264" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G264" t="n">
         <v>4</v>
@@ -10759,10 +10702,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F265" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10788,10 +10731,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F266" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10817,10 +10760,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F267" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10846,10 +10789,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F268" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10875,10 +10818,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F269" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10904,10 +10847,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F270" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10933,10 +10876,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F271" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G271" t="n">
         <v>4</v>
@@ -10962,10 +10905,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F272" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10991,10 +10934,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F273" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -11020,10 +10963,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F274" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11049,10 +10992,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F275" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G275" t="n">
         <v>4</v>
@@ -11078,10 +11021,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F276" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11107,10 +11050,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F277" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11136,10 +11079,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F278" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11165,10 +11108,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F279" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11194,10 +11137,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F280" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11223,10 +11166,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F281" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11252,10 +11195,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F282" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11281,10 +11224,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F283" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G283" t="n">
         <v>5</v>
@@ -11310,10 +11253,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F284" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -11339,10 +11282,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F285" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11368,10 +11311,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F286" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11397,10 +11340,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F287" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11426,10 +11369,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F288" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -11455,10 +11398,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F289" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G289" t="n">
         <v>4</v>
@@ -11484,10 +11427,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F290" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11513,10 +11456,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F291" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -11542,10 +11485,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F292" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11571,10 +11514,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F293" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -11600,10 +11543,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F294" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11629,10 +11572,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F295" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11658,10 +11601,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F296" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11687,10 +11630,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F297" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11716,10 +11659,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F298" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11745,10 +11688,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F299" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11774,10 +11717,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F300" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11803,10 +11746,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F301" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11832,10 +11775,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F302" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11861,10 +11804,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F303" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11890,10 +11833,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F304" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11919,10 +11862,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F305" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11948,10 +11891,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F306" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11977,10 +11920,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F307" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12006,10 +11949,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F308" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12035,10 +11978,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F309" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12064,10 +12007,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F310" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12093,10 +12036,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F311" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12122,10 +12065,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F312" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12151,10 +12094,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F313" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12180,10 +12123,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F314" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -12209,10 +12152,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F315" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12238,10 +12181,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F316" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G316" t="n">
         <v>4</v>
@@ -12267,10 +12210,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F317" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12296,10 +12239,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F318" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12325,10 +12268,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F319" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12354,10 +12297,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F320" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G320" t="n">
         <v>4</v>
@@ -12383,10 +12326,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F321" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G321" t="n">
         <v>5</v>
@@ -12412,10 +12355,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F322" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G322" t="n">
         <v>4</v>
@@ -12441,10 +12384,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F323" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G323" t="n">
         <v>4</v>
@@ -12470,10 +12413,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F324" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12499,10 +12442,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F325" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12528,10 +12471,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F326" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G326" t="n">
         <v>7</v>
@@ -12557,10 +12500,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F327" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G327" t="n">
         <v>5</v>
@@ -12586,10 +12529,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F328" t="s">
-        <v>596</v>
+        <v>408</v>
       </c>
       <c r="G328" t="n">
         <v>6</v>
@@ -12615,10 +12558,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F329" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12644,10 +12587,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F330" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G330" t="n">
         <v>4</v>
@@ -12673,10 +12616,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F331" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G331" t="n">
         <v>5</v>
@@ -12702,10 +12645,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F332" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G332" t="n">
         <v>4</v>
@@ -12731,10 +12674,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F333" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12760,10 +12703,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F334" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12789,10 +12732,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F335" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12818,10 +12761,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F336" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12847,10 +12790,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F337" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12876,10 +12819,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F338" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12905,10 +12848,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F339" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -12934,10 +12877,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F340" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12963,10 +12906,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F341" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12992,10 +12935,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F342" t="s">
-        <v>618</v>
+        <v>109</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13021,10 +12964,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F343" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13050,10 +12993,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F344" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13079,10 +13022,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F345" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13108,10 +13051,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="F346" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13137,10 +13080,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F347" t="s">
-        <v>626</v>
+        <v>416</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13166,10 +13109,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F348" t="s">
-        <v>628</v>
+        <v>385</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13195,10 +13138,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F349" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13224,10 +13167,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F350" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13253,10 +13196,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="F351" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="G351" t="n">
         <v>5</v>
@@ -13282,10 +13225,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="F352" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13311,10 +13254,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F353" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13340,10 +13283,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F354" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
@@ -13369,10 +13312,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="F355" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13398,10 +13341,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F356" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13427,10 +13370,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="F357" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13456,10 +13399,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F358" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G358" t="n">
         <v>9</v>
@@ -13485,10 +13428,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F359" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13514,10 +13457,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F360" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13543,10 +13486,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="F361" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13572,10 +13515,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F362" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13601,10 +13544,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F363" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13630,10 +13573,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F364" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13659,10 +13602,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="F365" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13688,10 +13631,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F366" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13717,10 +13660,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="F367" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13746,10 +13689,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F368" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13775,10 +13718,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F369" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13804,10 +13747,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F370" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13833,10 +13776,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F371" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13862,10 +13805,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F372" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13891,10 +13834,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F373" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13920,10 +13863,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F374" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13949,10 +13892,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F375" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13978,10 +13921,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F376" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14007,10 +13950,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F377" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14036,10 +13979,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F378" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14065,10 +14008,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F379" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14094,10 +14037,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F380" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14123,10 +14066,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="F381" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14152,10 +14095,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="F382" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14181,10 +14124,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="F383" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14210,10 +14153,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="F384" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14239,10 +14182,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="F385" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14268,10 +14211,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F386" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14297,10 +14240,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F387" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14326,10 +14269,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F388" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14355,10 +14298,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F389" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G389" t="n">
         <v>5</v>
@@ -14384,10 +14327,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F390" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14413,10 +14356,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F391" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14442,10 +14385,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F392" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14471,10 +14414,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F393" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14500,10 +14443,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F394" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14529,10 +14472,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F395" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14558,10 +14501,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F396" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14587,10 +14530,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F397" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14616,10 +14559,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F398" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14645,10 +14588,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F399" t="s">
-        <v>714</v>
+        <v>375</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14674,10 +14617,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F400" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14703,10 +14646,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="F401" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14732,10 +14675,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F402" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14761,10 +14704,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F403" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -14790,10 +14733,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F404" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14819,10 +14762,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F405" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -14848,10 +14791,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F406" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14877,10 +14820,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F407" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14906,10 +14849,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F408" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14935,10 +14878,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F409" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14964,10 +14907,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F410" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -14993,10 +14936,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F411" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15022,10 +14965,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F412" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15051,10 +14994,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F413" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15080,10 +15023,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F414" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15109,10 +15052,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F415" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15138,10 +15081,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F416" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G416" t="n">
         <v>4</v>
@@ -15167,10 +15110,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F417" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15196,10 +15139,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F418" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15225,10 +15168,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F419" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15254,10 +15197,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F420" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15283,10 +15226,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F421" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15312,10 +15255,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F422" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15341,10 +15284,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F423" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15370,10 +15313,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F424" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15399,10 +15342,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F425" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15428,10 +15371,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F426" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15457,10 +15400,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F427" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15486,10 +15429,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F428" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15515,10 +15458,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F429" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15544,10 +15487,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F430" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15573,10 +15516,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F431" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15602,10 +15545,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F432" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15631,10 +15574,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F433" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G433" t="n">
         <v>5</v>
@@ -15660,10 +15603,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F434" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15689,10 +15632,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F435" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15718,10 +15661,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F436" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15747,10 +15690,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F437" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15776,10 +15719,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F438" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15805,10 +15748,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F439" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15834,10 +15777,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F440" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -15863,10 +15806,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F441" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15892,10 +15835,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F442" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15921,10 +15864,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="F443" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -15950,10 +15893,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="F444" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15979,10 +15922,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F445" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16008,10 +15951,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="F446" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16037,10 +15980,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="F447" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16066,10 +16009,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="F448" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16095,10 +16038,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="F449" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16124,10 +16067,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F450" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16153,10 +16096,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="F451" t="s">
-        <v>808</v>
+        <v>667</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16182,10 +16125,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="F452" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16211,10 +16154,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="F453" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16240,10 +16183,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="F454" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16269,10 +16212,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="F455" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16298,10 +16241,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="F456" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16327,10 +16270,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F457" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16356,10 +16299,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="F458" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16385,10 +16328,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="F459" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16414,10 +16357,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F460" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -16443,10 +16386,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F461" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16472,10 +16415,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="F462" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16501,10 +16444,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="F463" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -16530,10 +16473,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="F464" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -16559,10 +16502,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="F465" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -16588,10 +16531,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="F466" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16617,10 +16560,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="F467" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -16646,10 +16589,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="F468" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -16675,10 +16618,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="F469" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16704,10 +16647,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="F470" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -16733,10 +16676,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F471" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -16762,10 +16705,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="F472" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16791,10 +16734,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="F473" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -16820,10 +16763,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="F474" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -16849,10 +16792,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="F475" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -16878,10 +16821,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F476" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16907,10 +16850,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="F477" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G477" t="n">
         <v>2</v>
@@ -16936,10 +16879,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="F478" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="G478" t="n">
         <v>3</v>
@@ -16965,10 +16908,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="F479" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -16994,10 +16937,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="F480" t="s">
-        <v>856</v>
+        <v>685</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17023,10 +16966,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="F481" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17052,10 +16995,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F482" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17081,10 +17024,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F483" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17110,10 +17053,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F484" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17139,10 +17082,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="F485" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17168,10 +17111,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="F486" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17197,10 +17140,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="F487" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17226,10 +17169,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="F488" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17255,10 +17198,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="F489" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17284,10 +17227,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="F490" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17313,10 +17256,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="F491" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17342,10 +17285,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F492" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17371,10 +17314,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="F493" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17400,10 +17343,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="F494" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17429,10 +17372,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="F495" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17458,10 +17401,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="F496" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17487,10 +17430,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="F497" t="s">
-        <v>880</v>
+        <v>716</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17516,10 +17459,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F498" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -17545,10 +17488,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="F499" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17574,10 +17517,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="F500" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17603,10 +17546,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="F501" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17632,10 +17575,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="F502" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17661,10 +17604,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="F503" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17690,10 +17633,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="F504" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17719,10 +17662,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="F505" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -17748,10 +17691,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="F506" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17777,10 +17720,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="F507" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -17806,10 +17749,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="F508" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -17835,10 +17778,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="F509" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -17864,10 +17807,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="F510" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -17893,10 +17836,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="F511" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>

--- a/xlsx/摩洛哥_intext.xlsx
+++ b/xlsx/摩洛哥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="909">
   <si>
     <t>摩洛哥</t>
   </si>
@@ -29,7 +29,7 @@
     <t>摩纳哥</t>
   </si>
   <si>
-    <t>政策_政策_美國_摩洛哥</t>
+    <t>体育运动_体育运动_伊朗_摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>摩洛哥首相</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Saadeddine_Othmani</t>
+  </si>
+  <si>
+    <t>en-Saadeddine Othmani</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
@@ -3084,7 +3090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4298,7 +4304,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -4327,7 +4333,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -4356,7 +4362,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -4385,7 +4391,7 @@
         <v>82</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -4414,7 +4420,7 @@
         <v>84</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -4559,7 +4565,7 @@
         <v>94</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -4588,7 +4594,7 @@
         <v>96</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -4617,7 +4623,7 @@
         <v>98</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4646,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4675,7 +4681,7 @@
         <v>102</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -4704,7 +4710,7 @@
         <v>104</v>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -4727,13 +4733,13 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -4756,13 +4762,13 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G58" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -4791,7 +4797,7 @@
         <v>108</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -4820,7 +4826,7 @@
         <v>110</v>
       </c>
       <c r="G60" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -4849,7 +4855,7 @@
         <v>112</v>
       </c>
       <c r="G61" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -4878,7 +4884,7 @@
         <v>114</v>
       </c>
       <c r="G62" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -4907,7 +4913,7 @@
         <v>116</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -4936,7 +4942,7 @@
         <v>118</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -4965,7 +4971,7 @@
         <v>120</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -4994,7 +5000,7 @@
         <v>122</v>
       </c>
       <c r="G66" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -5023,7 +5029,7 @@
         <v>124</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -5052,7 +5058,7 @@
         <v>126</v>
       </c>
       <c r="G68" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -5081,7 +5087,7 @@
         <v>128</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -5110,7 +5116,7 @@
         <v>130</v>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -5139,7 +5145,7 @@
         <v>132</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -5168,7 +5174,7 @@
         <v>134</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5371,7 +5377,7 @@
         <v>148</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -5400,7 +5406,7 @@
         <v>150</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5487,7 +5493,7 @@
         <v>156</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -5516,7 +5522,7 @@
         <v>158</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -5545,7 +5551,7 @@
         <v>160</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -5568,13 +5574,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -5597,13 +5603,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5632,7 +5638,7 @@
         <v>164</v>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -5661,7 +5667,7 @@
         <v>166</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5800,13 +5806,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5829,10 +5835,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5864,7 +5870,7 @@
         <v>178</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5893,7 +5899,7 @@
         <v>180</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -5922,7 +5928,7 @@
         <v>182</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -5951,7 +5957,7 @@
         <v>184</v>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5980,7 +5986,7 @@
         <v>186</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6090,13 +6096,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -6119,13 +6125,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -6154,7 +6160,7 @@
         <v>196</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -6183,7 +6189,7 @@
         <v>198</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -6241,7 +6247,7 @@
         <v>202</v>
       </c>
       <c r="G109" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -6270,7 +6276,7 @@
         <v>204</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6357,7 +6363,7 @@
         <v>210</v>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6386,7 +6392,7 @@
         <v>212</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6415,7 +6421,7 @@
         <v>214</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6444,7 +6450,7 @@
         <v>216</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6502,7 +6508,7 @@
         <v>220</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6531,7 +6537,7 @@
         <v>222</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -6560,7 +6566,7 @@
         <v>224</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6589,7 +6595,7 @@
         <v>226</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6676,7 +6682,7 @@
         <v>232</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -6705,7 +6711,7 @@
         <v>234</v>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -6734,7 +6740,7 @@
         <v>236</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -6792,7 +6798,7 @@
         <v>240</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6821,7 +6827,7 @@
         <v>242</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -7082,7 +7088,7 @@
         <v>260</v>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -7111,7 +7117,7 @@
         <v>262</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7140,7 +7146,7 @@
         <v>264</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -7372,7 +7378,7 @@
         <v>280</v>
       </c>
       <c r="G148" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7401,7 +7407,7 @@
         <v>282</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -7575,7 +7581,7 @@
         <v>294</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7633,7 +7639,7 @@
         <v>298</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7807,7 +7813,7 @@
         <v>310</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7865,7 +7871,7 @@
         <v>314</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7894,7 +7900,7 @@
         <v>316</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7952,7 +7958,7 @@
         <v>320</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -8010,7 +8016,7 @@
         <v>324</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -8039,7 +8045,7 @@
         <v>326</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -8126,7 +8132,7 @@
         <v>332</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -8155,7 +8161,7 @@
         <v>334</v>
       </c>
       <c r="G175" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -8178,13 +8184,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8207,13 +8213,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8242,7 +8248,7 @@
         <v>338</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8294,13 +8300,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8323,13 +8329,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8416,7 +8422,7 @@
         <v>348</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8445,7 +8451,7 @@
         <v>350</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8503,7 +8509,7 @@
         <v>354</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8532,7 +8538,7 @@
         <v>356</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8677,7 +8683,7 @@
         <v>366</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8700,10 +8706,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>121</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8729,13 +8735,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8764,7 +8770,7 @@
         <v>370</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8851,7 +8857,7 @@
         <v>376</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8938,7 +8944,7 @@
         <v>382</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8967,7 +8973,7 @@
         <v>384</v>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8996,7 +9002,7 @@
         <v>386</v>
       </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9025,7 +9031,7 @@
         <v>388</v>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -9054,7 +9060,7 @@
         <v>390</v>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -9106,10 +9112,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9141,7 +9147,7 @@
         <v>394</v>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9170,7 +9176,7 @@
         <v>396</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9286,7 +9292,7 @@
         <v>404</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9315,7 +9321,7 @@
         <v>406</v>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9344,7 +9350,7 @@
         <v>408</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9402,7 +9408,7 @@
         <v>412</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9431,7 +9437,7 @@
         <v>414</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9454,10 +9460,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9483,10 +9489,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9512,10 +9518,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F222" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9541,10 +9547,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9570,10 +9576,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9628,13 +9634,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9657,13 +9663,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="F227" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9715,10 +9721,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="F229" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9744,10 +9750,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="F230" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9773,10 +9779,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="F231" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9860,10 +9866,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="F234" t="s">
-        <v>3</v>
+        <v>366</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9889,10 +9895,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>335</v>
+        <v>2</v>
       </c>
       <c r="F235" t="s">
-        <v>336</v>
+        <v>3</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9918,10 +9924,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="F236" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9947,10 +9953,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="F237" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10034,10 +10040,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F240" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10069,7 +10075,7 @@
         <v>426</v>
       </c>
       <c r="G241" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10092,13 +10098,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="F242" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10121,13 +10127,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="F243" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10156,7 +10162,7 @@
         <v>430</v>
       </c>
       <c r="G244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10185,7 +10191,7 @@
         <v>432</v>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10214,7 +10220,7 @@
         <v>434</v>
       </c>
       <c r="G246" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10243,7 +10249,7 @@
         <v>436</v>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10272,7 +10278,7 @@
         <v>438</v>
       </c>
       <c r="G248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10359,7 +10365,7 @@
         <v>444</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10417,7 +10423,7 @@
         <v>448</v>
       </c>
       <c r="G253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10475,7 +10481,7 @@
         <v>452</v>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10504,7 +10510,7 @@
         <v>454</v>
       </c>
       <c r="G256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10533,7 +10539,7 @@
         <v>456</v>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10562,7 +10568,7 @@
         <v>458</v>
       </c>
       <c r="G258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10591,7 +10597,7 @@
         <v>460</v>
       </c>
       <c r="G259" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10620,7 +10626,7 @@
         <v>462</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10649,7 +10655,7 @@
         <v>464</v>
       </c>
       <c r="G261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10707,7 +10713,7 @@
         <v>468</v>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10736,7 +10742,7 @@
         <v>470</v>
       </c>
       <c r="G264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10765,7 +10771,7 @@
         <v>472</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10823,7 +10829,7 @@
         <v>476</v>
       </c>
       <c r="G267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10852,7 +10858,7 @@
         <v>478</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10881,7 +10887,7 @@
         <v>480</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10939,7 +10945,7 @@
         <v>484</v>
       </c>
       <c r="G271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10968,7 +10974,7 @@
         <v>486</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10997,7 +11003,7 @@
         <v>488</v>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11026,7 +11032,7 @@
         <v>490</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11055,7 +11061,7 @@
         <v>492</v>
       </c>
       <c r="G275" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11084,7 +11090,7 @@
         <v>494</v>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11229,7 +11235,7 @@
         <v>504</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11258,7 +11264,7 @@
         <v>506</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11287,7 +11293,7 @@
         <v>508</v>
       </c>
       <c r="G283" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11316,7 +11322,7 @@
         <v>510</v>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11345,7 +11351,7 @@
         <v>512</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11403,7 +11409,7 @@
         <v>516</v>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11461,7 +11467,7 @@
         <v>520</v>
       </c>
       <c r="G289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11490,7 +11496,7 @@
         <v>522</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11519,7 +11525,7 @@
         <v>524</v>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11548,7 +11554,7 @@
         <v>526</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11577,7 +11583,7 @@
         <v>528</v>
       </c>
       <c r="G293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11606,7 +11612,7 @@
         <v>530</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12041,7 +12047,7 @@
         <v>560</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12070,7 +12076,7 @@
         <v>562</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12186,7 +12192,7 @@
         <v>570</v>
       </c>
       <c r="G314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12215,7 +12221,7 @@
         <v>572</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12244,7 +12250,7 @@
         <v>574</v>
       </c>
       <c r="G316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12273,7 +12279,7 @@
         <v>576</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12302,7 +12308,7 @@
         <v>578</v>
       </c>
       <c r="G318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12331,7 +12337,7 @@
         <v>580</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12360,7 +12366,7 @@
         <v>582</v>
       </c>
       <c r="G320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12389,7 +12395,7 @@
         <v>584</v>
       </c>
       <c r="G321" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12418,7 +12424,7 @@
         <v>586</v>
       </c>
       <c r="G322" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12476,7 +12482,7 @@
         <v>590</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12505,7 +12511,7 @@
         <v>592</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12528,13 +12534,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>395</v>
+        <v>593</v>
       </c>
       <c r="F326" t="s">
-        <v>396</v>
+        <v>594</v>
       </c>
       <c r="G326" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12557,13 +12563,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>593</v>
+        <v>397</v>
       </c>
       <c r="F327" t="s">
-        <v>594</v>
+        <v>398</v>
       </c>
       <c r="G327" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12592,7 +12598,7 @@
         <v>596</v>
       </c>
       <c r="G328" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12621,7 +12627,7 @@
         <v>598</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12650,7 +12656,7 @@
         <v>600</v>
       </c>
       <c r="G330" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12673,13 +12679,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>381</v>
+        <v>601</v>
       </c>
       <c r="F331" t="s">
-        <v>382</v>
+        <v>602</v>
       </c>
       <c r="G331" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12702,13 +12708,13 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="F332" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="G332" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12731,13 +12737,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>601</v>
+        <v>407</v>
       </c>
       <c r="F333" t="s">
-        <v>602</v>
+        <v>408</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12766,7 +12772,7 @@
         <v>604</v>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12795,7 +12801,7 @@
         <v>606</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12824,7 +12830,7 @@
         <v>608</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12905,13 +12911,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>397</v>
+        <v>613</v>
       </c>
       <c r="F339" t="s">
-        <v>398</v>
+        <v>614</v>
       </c>
       <c r="G339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12934,13 +12940,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>613</v>
+        <v>399</v>
       </c>
       <c r="F340" t="s">
-        <v>614</v>
+        <v>400</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -13021,13 +13027,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>483</v>
+        <v>619</v>
       </c>
       <c r="F343" t="s">
-        <v>484</v>
+        <v>620</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13050,13 +13056,13 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>619</v>
+        <v>485</v>
       </c>
       <c r="F344" t="s">
-        <v>620</v>
+        <v>486</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13195,10 +13201,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>579</v>
+        <v>629</v>
       </c>
       <c r="F349" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13224,10 +13230,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>629</v>
+        <v>581</v>
       </c>
       <c r="F350" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13259,7 +13265,7 @@
         <v>632</v>
       </c>
       <c r="G351" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13288,7 +13294,7 @@
         <v>634</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13317,7 +13323,7 @@
         <v>636</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13340,13 +13346,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>355</v>
+        <v>637</v>
       </c>
       <c r="F354" t="s">
-        <v>356</v>
+        <v>638</v>
       </c>
       <c r="G354" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13369,13 +13375,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>637</v>
+        <v>357</v>
       </c>
       <c r="F355" t="s">
-        <v>638</v>
+        <v>358</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13433,7 +13439,7 @@
         <v>642</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13456,13 +13462,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>441</v>
+        <v>643</v>
       </c>
       <c r="F358" t="s">
-        <v>442</v>
+        <v>644</v>
       </c>
       <c r="G358" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13485,13 +13491,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>643</v>
+        <v>443</v>
       </c>
       <c r="F359" t="s">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13752,7 +13758,7 @@
         <v>662</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13781,7 +13787,7 @@
         <v>664</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13978,10 +13984,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>359</v>
+        <v>677</v>
       </c>
       <c r="F376" t="s">
-        <v>360</v>
+        <v>678</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14007,10 +14013,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="F377" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14036,10 +14042,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>677</v>
+        <v>467</v>
       </c>
       <c r="F378" t="s">
-        <v>678</v>
+        <v>468</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14071,7 +14077,7 @@
         <v>680</v>
       </c>
       <c r="G379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14094,13 +14100,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>415</v>
+        <v>681</v>
       </c>
       <c r="F380" t="s">
-        <v>416</v>
+        <v>682</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14123,10 +14129,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>681</v>
+        <v>417</v>
       </c>
       <c r="F381" t="s">
-        <v>682</v>
+        <v>418</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14245,7 +14251,7 @@
         <v>690</v>
       </c>
       <c r="G385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14297,13 +14303,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>127</v>
+        <v>693</v>
       </c>
       <c r="F387" t="s">
-        <v>128</v>
+        <v>694</v>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14326,13 +14332,13 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>693</v>
+        <v>129</v>
       </c>
       <c r="F388" t="s">
-        <v>694</v>
+        <v>130</v>
       </c>
       <c r="G388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14361,7 +14367,7 @@
         <v>696</v>
       </c>
       <c r="G389" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14390,7 +14396,7 @@
         <v>698</v>
       </c>
       <c r="G390" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14419,7 +14425,7 @@
         <v>700</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14448,7 +14454,7 @@
         <v>702</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14471,10 +14477,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>387</v>
+        <v>703</v>
       </c>
       <c r="F393" t="s">
-        <v>388</v>
+        <v>704</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14500,10 +14506,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>703</v>
+        <v>389</v>
       </c>
       <c r="F394" t="s">
-        <v>704</v>
+        <v>390</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14535,7 +14541,7 @@
         <v>706</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14564,7 +14570,7 @@
         <v>708</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14593,7 +14599,7 @@
         <v>710</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14680,7 +14686,7 @@
         <v>716</v>
       </c>
       <c r="G400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -14709,7 +14715,7 @@
         <v>718</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -14767,7 +14773,7 @@
         <v>722</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14854,7 +14860,7 @@
         <v>728</v>
       </c>
       <c r="G406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -14941,7 +14947,7 @@
         <v>734</v>
       </c>
       <c r="G409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -14999,7 +15005,7 @@
         <v>738</v>
       </c>
       <c r="G411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -15051,10 +15057,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>413</v>
+        <v>741</v>
       </c>
       <c r="F413" t="s">
-        <v>414</v>
+        <v>742</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15080,13 +15086,13 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F414" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15109,10 +15115,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>741</v>
+        <v>421</v>
       </c>
       <c r="F415" t="s">
-        <v>742</v>
+        <v>422</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15138,13 +15144,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>361</v>
+        <v>743</v>
       </c>
       <c r="F416" t="s">
-        <v>362</v>
+        <v>744</v>
       </c>
       <c r="G416" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15167,13 +15173,13 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>743</v>
+        <v>363</v>
       </c>
       <c r="F417" t="s">
-        <v>744</v>
+        <v>364</v>
       </c>
       <c r="G417" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -15463,7 +15469,7 @@
         <v>764</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15492,7 +15498,7 @@
         <v>766</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15544,10 +15550,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>471</v>
+        <v>769</v>
       </c>
       <c r="F430" t="s">
-        <v>472</v>
+        <v>770</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15573,10 +15579,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>769</v>
+        <v>473</v>
       </c>
       <c r="F431" t="s">
-        <v>770</v>
+        <v>474</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15631,13 +15637,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="F433" t="s">
-        <v>474</v>
+        <v>774</v>
       </c>
       <c r="G433" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15660,13 +15666,13 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>773</v>
+        <v>475</v>
       </c>
       <c r="F434" t="s">
-        <v>774</v>
+        <v>476</v>
       </c>
       <c r="G434" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -15695,7 +15701,7 @@
         <v>776</v>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -15840,7 +15846,7 @@
         <v>786</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -15869,7 +15875,7 @@
         <v>788</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -15927,7 +15933,7 @@
         <v>792</v>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -15956,7 +15962,7 @@
         <v>794</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -16327,10 +16333,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>393</v>
+        <v>819</v>
       </c>
       <c r="F457" t="s">
-        <v>394</v>
+        <v>820</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16356,10 +16362,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>819</v>
+        <v>395</v>
       </c>
       <c r="F458" t="s">
-        <v>820</v>
+        <v>396</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16414,13 +16420,13 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>673</v>
+        <v>823</v>
       </c>
       <c r="F460" t="s">
-        <v>674</v>
+        <v>824</v>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -16443,10 +16449,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>823</v>
+        <v>675</v>
       </c>
       <c r="F461" t="s">
-        <v>824</v>
+        <v>676</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16478,7 +16484,7 @@
         <v>826</v>
       </c>
       <c r="G462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -16507,7 +16513,7 @@
         <v>828</v>
       </c>
       <c r="G463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -16594,7 +16600,7 @@
         <v>834</v>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -16623,7 +16629,7 @@
         <v>836</v>
       </c>
       <c r="G467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -16681,7 +16687,7 @@
         <v>840</v>
       </c>
       <c r="G469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -16710,7 +16716,7 @@
         <v>842</v>
       </c>
       <c r="G470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -16733,10 +16739,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>419</v>
+        <v>843</v>
       </c>
       <c r="F471" t="s">
-        <v>420</v>
+        <v>844</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -16762,13 +16768,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>843</v>
+        <v>421</v>
       </c>
       <c r="F472" t="s">
-        <v>844</v>
+        <v>422</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -16797,7 +16803,7 @@
         <v>846</v>
       </c>
       <c r="G473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H473" t="s">
         <v>4</v>
@@ -16878,13 +16884,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>693</v>
+        <v>851</v>
       </c>
       <c r="F476" t="s">
-        <v>694</v>
+        <v>852</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -16907,13 +16913,13 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="F477" t="s">
-        <v>634</v>
+        <v>696</v>
       </c>
       <c r="G477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -16936,13 +16942,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>851</v>
+        <v>635</v>
       </c>
       <c r="F478" t="s">
-        <v>852</v>
+        <v>636</v>
       </c>
       <c r="G478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -16971,7 +16977,7 @@
         <v>854</v>
       </c>
       <c r="G479" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -17000,7 +17006,7 @@
         <v>856</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -17029,7 +17035,7 @@
         <v>858</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -17052,10 +17058,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>473</v>
+        <v>859</v>
       </c>
       <c r="F482" t="s">
-        <v>474</v>
+        <v>860</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17081,10 +17087,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F483" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17110,10 +17116,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>741</v>
+        <v>473</v>
       </c>
       <c r="F484" t="s">
-        <v>742</v>
+        <v>474</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17139,10 +17145,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>859</v>
+        <v>743</v>
       </c>
       <c r="F485" t="s">
-        <v>860</v>
+        <v>744</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17226,10 +17232,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>811</v>
+        <v>865</v>
       </c>
       <c r="F488" t="s">
-        <v>812</v>
+        <v>866</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17255,10 +17261,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>865</v>
+        <v>813</v>
       </c>
       <c r="F489" t="s">
-        <v>866</v>
+        <v>814</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17342,13 +17348,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>359</v>
+        <v>871</v>
       </c>
       <c r="F492" t="s">
-        <v>360</v>
+        <v>872</v>
       </c>
       <c r="G492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -17371,13 +17377,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>871</v>
+        <v>361</v>
       </c>
       <c r="F493" t="s">
-        <v>872</v>
+        <v>362</v>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -17516,13 +17522,13 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>363</v>
+        <v>881</v>
       </c>
       <c r="F498" t="s">
-        <v>364</v>
+        <v>882</v>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -17545,13 +17551,13 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>881</v>
+        <v>365</v>
       </c>
       <c r="F499" t="s">
-        <v>882</v>
+        <v>366</v>
       </c>
       <c r="G499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -17725,7 +17731,7 @@
         <v>894</v>
       </c>
       <c r="G505" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
@@ -17754,7 +17760,7 @@
         <v>896</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -17905,6 +17911,35 @@
         <v>4</v>
       </c>
       <c r="I511" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1</v>
+      </c>
+      <c r="D512" t="n">
+        <v>511</v>
+      </c>
+      <c r="E512" t="s">
+        <v>907</v>
+      </c>
+      <c r="F512" t="s">
+        <v>908</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1</v>
+      </c>
+      <c r="H512" t="s">
+        <v>4</v>
+      </c>
+      <c r="I512" t="n">
         <v>3</v>
       </c>
     </row>
